--- a/TravaAltaPut_IRBR3_IRBRT500_IRBRT600.xlsx
+++ b/TravaAltaPut_IRBR3_IRBRT500_IRBRT600.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>

--- a/TravaAltaPut_IRBR3_IRBRT500_IRBRT600.xlsx
+++ b/TravaAltaPut_IRBR3_IRBRT500_IRBRT600.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F3" t="n">
         <v>0.05</v>
@@ -545,13 +545,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
